--- a/Acueducto.xlsx
+++ b/Acueducto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\Acueducto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236AC4F1-0481-480F-A2DA-F970B96225B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72293C3-465F-467F-9D0F-FE5EC640328D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{46D53AC9-8F7B-47CA-B518-61C40347A21C}"/>
   </bookViews>
@@ -1373,7 +1373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1834,13 +1834,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1974,9 +1987,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2067,14 +2077,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2084,9 +2088,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2142,15 +2143,6 @@
     <xf numFmtId="41" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2167,6 +2159,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2202,12 +2203,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2218,6 +2213,75 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4846,8 +4910,8 @@
   <dimension ref="A1:DT91"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z40" sqref="Z40"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4863,546 +4927,546 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
-      <c r="AO1" s="103"/>
-      <c r="AP1" s="103"/>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
-      <c r="AV1" s="103"/>
-      <c r="AW1" s="103"/>
-      <c r="AX1" s="103"/>
-      <c r="AY1" s="103"/>
-      <c r="AZ1" s="103"/>
-      <c r="BA1" s="103"/>
-      <c r="BB1" s="103"/>
-      <c r="BC1" s="103"/>
-      <c r="BD1" s="103"/>
-      <c r="BE1" s="103"/>
-      <c r="BF1" s="103"/>
-      <c r="BG1" s="103"/>
-      <c r="BH1" s="103"/>
-      <c r="BI1" s="103"/>
-      <c r="BJ1" s="103"/>
-      <c r="BK1" s="103"/>
-      <c r="BL1" s="103"/>
-      <c r="BM1" s="103"/>
-      <c r="BN1" s="103"/>
-      <c r="BO1" s="103"/>
-      <c r="BP1" s="103"/>
-      <c r="BQ1" s="103"/>
-      <c r="BR1" s="103"/>
-      <c r="BS1" s="103"/>
-      <c r="BT1" s="103"/>
-      <c r="BU1" s="103"/>
-      <c r="BV1" s="103"/>
-      <c r="BW1" s="103"/>
-      <c r="BX1" s="103"/>
-      <c r="BY1" s="103"/>
-      <c r="BZ1" s="103"/>
-      <c r="CA1" s="103"/>
-      <c r="CB1" s="103"/>
-      <c r="CC1" s="103"/>
-      <c r="CD1" s="103"/>
-      <c r="CE1" s="103"/>
-      <c r="CF1" s="103"/>
-      <c r="CG1" s="103"/>
-      <c r="CH1" s="103"/>
-      <c r="CI1" s="103"/>
-      <c r="CJ1" s="103"/>
-      <c r="CK1" s="103"/>
-      <c r="CL1" s="103"/>
-      <c r="CM1" s="103"/>
-      <c r="CN1" s="103"/>
-      <c r="CO1" s="103"/>
-      <c r="CP1" s="103"/>
-      <c r="CQ1" s="103"/>
-      <c r="CR1" s="103"/>
-      <c r="CS1" s="103"/>
-      <c r="CT1" s="103"/>
-      <c r="CU1" s="103"/>
-      <c r="CV1" s="103"/>
-      <c r="CW1" s="103"/>
-      <c r="CX1" s="103"/>
-      <c r="CY1" s="103"/>
-      <c r="CZ1" s="103"/>
-      <c r="DA1" s="103"/>
-      <c r="DB1" s="103"/>
-      <c r="DC1" s="103"/>
-      <c r="DD1" s="103"/>
-      <c r="DE1" s="103"/>
-      <c r="DF1" s="103"/>
-      <c r="DG1" s="103"/>
-      <c r="DH1" s="103"/>
-      <c r="DI1" s="103"/>
-      <c r="DJ1" s="103"/>
-      <c r="DK1" s="103"/>
-      <c r="DL1" s="103"/>
-      <c r="DM1" s="103"/>
-      <c r="DN1" s="103"/>
-      <c r="DO1" s="103"/>
-      <c r="DP1" s="103"/>
-      <c r="DQ1" s="103"/>
-      <c r="DR1" s="103"/>
-      <c r="DS1" s="103"/>
-      <c r="DT1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="105"/>
+      <c r="AH1" s="105"/>
+      <c r="AI1" s="105"/>
+      <c r="AJ1" s="105"/>
+      <c r="AK1" s="105"/>
+      <c r="AL1" s="105"/>
+      <c r="AM1" s="105"/>
+      <c r="AN1" s="105"/>
+      <c r="AO1" s="105"/>
+      <c r="AP1" s="105"/>
+      <c r="AQ1" s="105"/>
+      <c r="AR1" s="105"/>
+      <c r="AS1" s="105"/>
+      <c r="AT1" s="105"/>
+      <c r="AU1" s="105"/>
+      <c r="AV1" s="105"/>
+      <c r="AW1" s="105"/>
+      <c r="AX1" s="105"/>
+      <c r="AY1" s="105"/>
+      <c r="AZ1" s="105"/>
+      <c r="BA1" s="105"/>
+      <c r="BB1" s="105"/>
+      <c r="BC1" s="105"/>
+      <c r="BD1" s="105"/>
+      <c r="BE1" s="105"/>
+      <c r="BF1" s="105"/>
+      <c r="BG1" s="105"/>
+      <c r="BH1" s="105"/>
+      <c r="BI1" s="105"/>
+      <c r="BJ1" s="105"/>
+      <c r="BK1" s="105"/>
+      <c r="BL1" s="105"/>
+      <c r="BM1" s="105"/>
+      <c r="BN1" s="105"/>
+      <c r="BO1" s="105"/>
+      <c r="BP1" s="105"/>
+      <c r="BQ1" s="105"/>
+      <c r="BR1" s="105"/>
+      <c r="BS1" s="105"/>
+      <c r="BT1" s="105"/>
+      <c r="BU1" s="105"/>
+      <c r="BV1" s="105"/>
+      <c r="BW1" s="105"/>
+      <c r="BX1" s="105"/>
+      <c r="BY1" s="105"/>
+      <c r="BZ1" s="105"/>
+      <c r="CA1" s="105"/>
+      <c r="CB1" s="105"/>
+      <c r="CC1" s="105"/>
+      <c r="CD1" s="105"/>
+      <c r="CE1" s="105"/>
+      <c r="CF1" s="105"/>
+      <c r="CG1" s="105"/>
+      <c r="CH1" s="105"/>
+      <c r="CI1" s="105"/>
+      <c r="CJ1" s="105"/>
+      <c r="CK1" s="105"/>
+      <c r="CL1" s="105"/>
+      <c r="CM1" s="105"/>
+      <c r="CN1" s="105"/>
+      <c r="CO1" s="105"/>
+      <c r="CP1" s="105"/>
+      <c r="CQ1" s="105"/>
+      <c r="CR1" s="105"/>
+      <c r="CS1" s="105"/>
+      <c r="CT1" s="105"/>
+      <c r="CU1" s="105"/>
+      <c r="CV1" s="105"/>
+      <c r="CW1" s="105"/>
+      <c r="CX1" s="105"/>
+      <c r="CY1" s="105"/>
+      <c r="CZ1" s="105"/>
+      <c r="DA1" s="105"/>
+      <c r="DB1" s="105"/>
+      <c r="DC1" s="105"/>
+      <c r="DD1" s="105"/>
+      <c r="DE1" s="105"/>
+      <c r="DF1" s="105"/>
+      <c r="DG1" s="105"/>
+      <c r="DH1" s="105"/>
+      <c r="DI1" s="105"/>
+      <c r="DJ1" s="105"/>
+      <c r="DK1" s="105"/>
+      <c r="DL1" s="105"/>
+      <c r="DM1" s="105"/>
+      <c r="DN1" s="105"/>
+      <c r="DO1" s="105"/>
+      <c r="DP1" s="105"/>
+      <c r="DQ1" s="105"/>
+      <c r="DR1" s="105"/>
+      <c r="DS1" s="105"/>
+      <c r="DT1" s="105"/>
     </row>
     <row r="2" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="104" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="104" t="s">
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="104" t="s">
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="106"/>
-      <c r="AO2" s="104" t="s">
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98"/>
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="99"/>
+      <c r="AO2" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="AP2" s="105"/>
-      <c r="AQ2" s="105"/>
-      <c r="AR2" s="105"/>
-      <c r="AS2" s="105"/>
-      <c r="AT2" s="105"/>
-      <c r="AU2" s="105"/>
-      <c r="AV2" s="105"/>
-      <c r="AW2" s="105"/>
-      <c r="AX2" s="105"/>
-      <c r="AY2" s="105"/>
-      <c r="AZ2" s="106"/>
-      <c r="BA2" s="104" t="s">
+      <c r="AP2" s="98"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="98"/>
+      <c r="AV2" s="98"/>
+      <c r="AW2" s="98"/>
+      <c r="AX2" s="98"/>
+      <c r="AY2" s="98"/>
+      <c r="AZ2" s="99"/>
+      <c r="BA2" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="BB2" s="105"/>
-      <c r="BC2" s="105"/>
-      <c r="BD2" s="105"/>
-      <c r="BE2" s="105"/>
-      <c r="BF2" s="105"/>
-      <c r="BG2" s="105"/>
-      <c r="BH2" s="105"/>
-      <c r="BI2" s="105"/>
-      <c r="BJ2" s="105"/>
-      <c r="BK2" s="105"/>
-      <c r="BL2" s="106"/>
-      <c r="BM2" s="120" t="s">
+      <c r="BB2" s="98"/>
+      <c r="BC2" s="98"/>
+      <c r="BD2" s="98"/>
+      <c r="BE2" s="98"/>
+      <c r="BF2" s="98"/>
+      <c r="BG2" s="98"/>
+      <c r="BH2" s="98"/>
+      <c r="BI2" s="98"/>
+      <c r="BJ2" s="98"/>
+      <c r="BK2" s="98"/>
+      <c r="BL2" s="99"/>
+      <c r="BM2" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="BN2" s="105"/>
-      <c r="BO2" s="105"/>
-      <c r="BP2" s="105"/>
-      <c r="BQ2" s="105"/>
-      <c r="BR2" s="105"/>
-      <c r="BS2" s="105"/>
-      <c r="BT2" s="105"/>
-      <c r="BU2" s="105"/>
-      <c r="BV2" s="105"/>
-      <c r="BW2" s="105"/>
-      <c r="BX2" s="106"/>
-      <c r="BY2" s="104" t="s">
+      <c r="BN2" s="98"/>
+      <c r="BO2" s="98"/>
+      <c r="BP2" s="98"/>
+      <c r="BQ2" s="98"/>
+      <c r="BR2" s="98"/>
+      <c r="BS2" s="98"/>
+      <c r="BT2" s="98"/>
+      <c r="BU2" s="98"/>
+      <c r="BV2" s="98"/>
+      <c r="BW2" s="98"/>
+      <c r="BX2" s="99"/>
+      <c r="BY2" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="BZ2" s="105"/>
-      <c r="CA2" s="105"/>
-      <c r="CB2" s="105"/>
-      <c r="CC2" s="105"/>
-      <c r="CD2" s="105"/>
-      <c r="CE2" s="105"/>
-      <c r="CF2" s="105"/>
-      <c r="CG2" s="105"/>
-      <c r="CH2" s="105"/>
-      <c r="CI2" s="105"/>
-      <c r="CJ2" s="106"/>
-      <c r="CK2" s="104" t="s">
+      <c r="BZ2" s="98"/>
+      <c r="CA2" s="98"/>
+      <c r="CB2" s="98"/>
+      <c r="CC2" s="98"/>
+      <c r="CD2" s="98"/>
+      <c r="CE2" s="98"/>
+      <c r="CF2" s="98"/>
+      <c r="CG2" s="98"/>
+      <c r="CH2" s="98"/>
+      <c r="CI2" s="98"/>
+      <c r="CJ2" s="99"/>
+      <c r="CK2" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="CL2" s="105"/>
-      <c r="CM2" s="105"/>
-      <c r="CN2" s="105"/>
-      <c r="CO2" s="105"/>
-      <c r="CP2" s="105"/>
-      <c r="CQ2" s="105"/>
-      <c r="CR2" s="105"/>
-      <c r="CS2" s="105"/>
-      <c r="CT2" s="105"/>
-      <c r="CU2" s="105"/>
-      <c r="CV2" s="106"/>
-      <c r="CW2" s="104" t="s">
+      <c r="CL2" s="98"/>
+      <c r="CM2" s="98"/>
+      <c r="CN2" s="98"/>
+      <c r="CO2" s="98"/>
+      <c r="CP2" s="98"/>
+      <c r="CQ2" s="98"/>
+      <c r="CR2" s="98"/>
+      <c r="CS2" s="98"/>
+      <c r="CT2" s="98"/>
+      <c r="CU2" s="98"/>
+      <c r="CV2" s="99"/>
+      <c r="CW2" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="CX2" s="105"/>
-      <c r="CY2" s="105"/>
-      <c r="CZ2" s="105"/>
-      <c r="DA2" s="105"/>
-      <c r="DB2" s="105"/>
-      <c r="DC2" s="105"/>
-      <c r="DD2" s="105"/>
-      <c r="DE2" s="105"/>
-      <c r="DF2" s="105"/>
-      <c r="DG2" s="105"/>
-      <c r="DH2" s="110"/>
-      <c r="DI2" s="104" t="s">
+      <c r="CX2" s="98"/>
+      <c r="CY2" s="98"/>
+      <c r="CZ2" s="98"/>
+      <c r="DA2" s="98"/>
+      <c r="DB2" s="98"/>
+      <c r="DC2" s="98"/>
+      <c r="DD2" s="98"/>
+      <c r="DE2" s="98"/>
+      <c r="DF2" s="98"/>
+      <c r="DG2" s="98"/>
+      <c r="DH2" s="106"/>
+      <c r="DI2" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="DJ2" s="105"/>
-      <c r="DK2" s="105"/>
-      <c r="DL2" s="105"/>
-      <c r="DM2" s="105"/>
-      <c r="DN2" s="105"/>
-      <c r="DO2" s="105"/>
-      <c r="DP2" s="105"/>
-      <c r="DQ2" s="105"/>
-      <c r="DR2" s="105"/>
-      <c r="DS2" s="105"/>
-      <c r="DT2" s="106"/>
+      <c r="DJ2" s="98"/>
+      <c r="DK2" s="98"/>
+      <c r="DL2" s="98"/>
+      <c r="DM2" s="98"/>
+      <c r="DN2" s="98"/>
+      <c r="DO2" s="98"/>
+      <c r="DP2" s="98"/>
+      <c r="DQ2" s="98"/>
+      <c r="DR2" s="98"/>
+      <c r="DS2" s="98"/>
+      <c r="DT2" s="99"/>
     </row>
     <row r="3" spans="1:124" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="107" t="s">
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="107" t="s">
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="108"/>
-      <c r="AL3" s="108"/>
-      <c r="AM3" s="108"/>
-      <c r="AN3" s="109"/>
-      <c r="AO3" s="107" t="s">
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="101"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="102"/>
+      <c r="AO3" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="AP3" s="108"/>
-      <c r="AQ3" s="108"/>
-      <c r="AR3" s="108"/>
-      <c r="AS3" s="108"/>
-      <c r="AT3" s="108"/>
-      <c r="AU3" s="108"/>
-      <c r="AV3" s="108"/>
-      <c r="AW3" s="108"/>
-      <c r="AX3" s="108"/>
-      <c r="AY3" s="108"/>
-      <c r="AZ3" s="109"/>
-      <c r="BA3" s="107" t="s">
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="101"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="101"/>
+      <c r="AT3" s="101"/>
+      <c r="AU3" s="101"/>
+      <c r="AV3" s="101"/>
+      <c r="AW3" s="101"/>
+      <c r="AX3" s="101"/>
+      <c r="AY3" s="101"/>
+      <c r="AZ3" s="102"/>
+      <c r="BA3" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="BB3" s="108"/>
-      <c r="BC3" s="108"/>
-      <c r="BD3" s="108"/>
-      <c r="BE3" s="108"/>
-      <c r="BF3" s="108"/>
-      <c r="BG3" s="108"/>
-      <c r="BH3" s="108"/>
-      <c r="BI3" s="108"/>
-      <c r="BJ3" s="108"/>
-      <c r="BK3" s="108"/>
-      <c r="BL3" s="109"/>
-      <c r="BM3" s="111" t="s">
+      <c r="BB3" s="101"/>
+      <c r="BC3" s="101"/>
+      <c r="BD3" s="101"/>
+      <c r="BE3" s="101"/>
+      <c r="BF3" s="101"/>
+      <c r="BG3" s="101"/>
+      <c r="BH3" s="101"/>
+      <c r="BI3" s="101"/>
+      <c r="BJ3" s="101"/>
+      <c r="BK3" s="101"/>
+      <c r="BL3" s="102"/>
+      <c r="BM3" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="BN3" s="108"/>
-      <c r="BO3" s="108"/>
-      <c r="BP3" s="108"/>
-      <c r="BQ3" s="108"/>
-      <c r="BR3" s="108"/>
-      <c r="BS3" s="108"/>
-      <c r="BT3" s="108"/>
-      <c r="BU3" s="108"/>
-      <c r="BV3" s="108"/>
-      <c r="BW3" s="108"/>
-      <c r="BX3" s="109"/>
-      <c r="BY3" s="111" t="s">
+      <c r="BN3" s="101"/>
+      <c r="BO3" s="101"/>
+      <c r="BP3" s="101"/>
+      <c r="BQ3" s="101"/>
+      <c r="BR3" s="101"/>
+      <c r="BS3" s="101"/>
+      <c r="BT3" s="101"/>
+      <c r="BU3" s="101"/>
+      <c r="BV3" s="101"/>
+      <c r="BW3" s="101"/>
+      <c r="BX3" s="102"/>
+      <c r="BY3" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="BZ3" s="108"/>
-      <c r="CA3" s="108"/>
-      <c r="CB3" s="108"/>
-      <c r="CC3" s="108"/>
-      <c r="CD3" s="108"/>
-      <c r="CE3" s="108"/>
-      <c r="CF3" s="108"/>
-      <c r="CG3" s="108"/>
-      <c r="CH3" s="108"/>
-      <c r="CI3" s="108"/>
-      <c r="CJ3" s="109"/>
-      <c r="CK3" s="107" t="s">
+      <c r="BZ3" s="101"/>
+      <c r="CA3" s="101"/>
+      <c r="CB3" s="101"/>
+      <c r="CC3" s="101"/>
+      <c r="CD3" s="101"/>
+      <c r="CE3" s="101"/>
+      <c r="CF3" s="101"/>
+      <c r="CG3" s="101"/>
+      <c r="CH3" s="101"/>
+      <c r="CI3" s="101"/>
+      <c r="CJ3" s="102"/>
+      <c r="CK3" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="CL3" s="108"/>
-      <c r="CM3" s="108"/>
-      <c r="CN3" s="108"/>
-      <c r="CO3" s="108"/>
-      <c r="CP3" s="108"/>
-      <c r="CQ3" s="108"/>
-      <c r="CR3" s="108"/>
-      <c r="CS3" s="108"/>
-      <c r="CT3" s="108"/>
-      <c r="CU3" s="108"/>
-      <c r="CV3" s="109"/>
-      <c r="CW3" s="111" t="s">
+      <c r="CL3" s="101"/>
+      <c r="CM3" s="101"/>
+      <c r="CN3" s="101"/>
+      <c r="CO3" s="101"/>
+      <c r="CP3" s="101"/>
+      <c r="CQ3" s="101"/>
+      <c r="CR3" s="101"/>
+      <c r="CS3" s="101"/>
+      <c r="CT3" s="101"/>
+      <c r="CU3" s="101"/>
+      <c r="CV3" s="102"/>
+      <c r="CW3" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="CX3" s="108"/>
-      <c r="CY3" s="108"/>
-      <c r="CZ3" s="108"/>
-      <c r="DA3" s="108"/>
-      <c r="DB3" s="108"/>
-      <c r="DC3" s="108"/>
-      <c r="DD3" s="108"/>
-      <c r="DE3" s="108"/>
-      <c r="DF3" s="108"/>
-      <c r="DG3" s="108"/>
-      <c r="DH3" s="109"/>
-      <c r="DI3" s="111" t="s">
+      <c r="CX3" s="101"/>
+      <c r="CY3" s="101"/>
+      <c r="CZ3" s="101"/>
+      <c r="DA3" s="101"/>
+      <c r="DB3" s="101"/>
+      <c r="DC3" s="101"/>
+      <c r="DD3" s="101"/>
+      <c r="DE3" s="101"/>
+      <c r="DF3" s="101"/>
+      <c r="DG3" s="101"/>
+      <c r="DH3" s="102"/>
+      <c r="DI3" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="DJ3" s="108"/>
-      <c r="DK3" s="108"/>
-      <c r="DL3" s="108"/>
-      <c r="DM3" s="108"/>
-      <c r="DN3" s="108"/>
-      <c r="DO3" s="108"/>
-      <c r="DP3" s="108"/>
-      <c r="DQ3" s="108"/>
-      <c r="DR3" s="108"/>
-      <c r="DS3" s="108"/>
-      <c r="DT3" s="109"/>
+      <c r="DJ3" s="101"/>
+      <c r="DK3" s="101"/>
+      <c r="DL3" s="101"/>
+      <c r="DM3" s="101"/>
+      <c r="DN3" s="101"/>
+      <c r="DO3" s="101"/>
+      <c r="DP3" s="101"/>
+      <c r="DQ3" s="101"/>
+      <c r="DR3" s="101"/>
+      <c r="DS3" s="101"/>
+      <c r="DT3" s="102"/>
     </row>
     <row r="4" spans="1:124" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="115"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="80">
+      <c r="A4" s="111"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="77">
         <v>1</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="69">
         <v>2</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="69">
         <v>3</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="69">
         <v>4</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="69">
         <v>5</v>
       </c>
-      <c r="J4" s="70">
+      <c r="J4" s="69">
         <v>6</v>
       </c>
-      <c r="K4" s="70">
+      <c r="K4" s="69">
         <v>7</v>
       </c>
-      <c r="L4" s="70">
+      <c r="L4" s="69">
         <v>8</v>
       </c>
-      <c r="M4" s="70">
+      <c r="M4" s="69">
         <v>9</v>
       </c>
-      <c r="N4" s="70">
+      <c r="N4" s="69">
         <v>10</v>
       </c>
-      <c r="O4" s="70">
+      <c r="O4" s="69">
         <v>11</v>
       </c>
-      <c r="P4" s="71">
+      <c r="P4" s="70">
         <v>12</v>
       </c>
-      <c r="Q4" s="80">
+      <c r="Q4" s="77">
         <v>1</v>
       </c>
-      <c r="R4" s="70">
+      <c r="R4" s="69">
         <v>2</v>
       </c>
-      <c r="S4" s="70">
+      <c r="S4" s="69">
         <v>3</v>
       </c>
-      <c r="T4" s="70">
+      <c r="T4" s="69">
         <v>4</v>
       </c>
-      <c r="U4" s="70">
+      <c r="U4" s="69">
         <v>5</v>
       </c>
-      <c r="V4" s="70">
+      <c r="V4" s="69">
         <v>6</v>
       </c>
-      <c r="W4" s="70">
+      <c r="W4" s="69">
         <v>7</v>
       </c>
-      <c r="X4" s="70">
+      <c r="X4" s="69">
         <v>8</v>
       </c>
-      <c r="Y4" s="70">
+      <c r="Y4" s="69">
         <v>9</v>
       </c>
-      <c r="Z4" s="70">
+      <c r="Z4" s="69">
         <v>10</v>
       </c>
-      <c r="AA4" s="70">
+      <c r="AA4" s="69">
         <v>11</v>
       </c>
-      <c r="AB4" s="71">
+      <c r="AB4" s="70">
         <v>12</v>
       </c>
-      <c r="AC4" s="80">
+      <c r="AC4" s="77">
         <v>1</v>
       </c>
-      <c r="AD4" s="70">
+      <c r="AD4" s="69">
         <v>2</v>
       </c>
-      <c r="AE4" s="70">
+      <c r="AE4" s="69">
         <v>3</v>
       </c>
-      <c r="AF4" s="70">
+      <c r="AF4" s="69">
         <v>4</v>
       </c>
-      <c r="AG4" s="70">
+      <c r="AG4" s="69">
         <v>5</v>
       </c>
-      <c r="AH4" s="70">
+      <c r="AH4" s="69">
         <v>6</v>
       </c>
-      <c r="AI4" s="70">
+      <c r="AI4" s="69">
         <v>7</v>
       </c>
-      <c r="AJ4" s="70">
+      <c r="AJ4" s="69">
         <v>8</v>
       </c>
-      <c r="AK4" s="70">
+      <c r="AK4" s="69">
         <v>9</v>
       </c>
-      <c r="AL4" s="70">
+      <c r="AL4" s="69">
         <v>10</v>
       </c>
-      <c r="AM4" s="70">
+      <c r="AM4" s="69">
         <v>11</v>
       </c>
-      <c r="AN4" s="71">
+      <c r="AN4" s="70">
         <v>12</v>
       </c>
       <c r="AO4" s="29">
@@ -5718,7 +5782,7 @@
       <c r="AW5" s="32"/>
       <c r="AX5" s="32"/>
       <c r="AY5" s="32"/>
-      <c r="AZ5" s="46"/>
+      <c r="AZ5" s="45"/>
       <c r="BA5" s="25"/>
       <c r="BB5" s="26"/>
       <c r="BC5" s="26"/>
@@ -5852,7 +5916,7 @@
       <c r="AW6" s="5"/>
       <c r="AX6" s="5"/>
       <c r="AY6" s="5"/>
-      <c r="AZ6" s="47"/>
+      <c r="AZ6" s="46"/>
       <c r="BA6" s="6"/>
       <c r="BB6" s="3"/>
       <c r="BC6" s="3"/>
@@ -5986,7 +6050,7 @@
       <c r="AW7" s="5"/>
       <c r="AX7" s="5"/>
       <c r="AY7" s="5"/>
-      <c r="AZ7" s="47"/>
+      <c r="AZ7" s="46"/>
       <c r="BA7" s="6"/>
       <c r="BB7" s="3"/>
       <c r="BC7" s="3"/>
@@ -6120,7 +6184,7 @@
       <c r="AW8" s="5"/>
       <c r="AX8" s="5"/>
       <c r="AY8" s="5"/>
-      <c r="AZ8" s="47"/>
+      <c r="AZ8" s="46"/>
       <c r="BA8" s="6"/>
       <c r="BB8" s="3"/>
       <c r="BC8" s="3"/>
@@ -6254,7 +6318,7 @@
       <c r="AW9" s="5"/>
       <c r="AX9" s="5"/>
       <c r="AY9" s="5"/>
-      <c r="AZ9" s="47"/>
+      <c r="AZ9" s="46"/>
       <c r="BA9" s="6"/>
       <c r="BB9" s="3"/>
       <c r="BC9" s="3"/>
@@ -6578,7 +6642,7 @@
       <c r="AY10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AZ10" s="8" t="s">
+      <c r="AZ10" s="7" t="s">
         <v>69</v>
       </c>
       <c r="BA10" s="6" t="s">
@@ -6858,7 +6922,7 @@
       <c r="AW11" s="5"/>
       <c r="AX11" s="5"/>
       <c r="AY11" s="5"/>
-      <c r="AZ11" s="47"/>
+      <c r="AZ11" s="46"/>
       <c r="BA11" s="6"/>
       <c r="BB11" s="3"/>
       <c r="BC11" s="3"/>
@@ -7070,7 +7134,7 @@
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
       <c r="AY12" s="5"/>
-      <c r="AZ12" s="47"/>
+      <c r="AZ12" s="46"/>
       <c r="BA12" s="6" t="s">
         <v>69</v>
       </c>
@@ -7663,7 +7727,7 @@
       <c r="X14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Y14" s="89"/>
+      <c r="Y14" s="85"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="7"/>
@@ -8016,7 +8080,7 @@
       <c r="AW15" s="5"/>
       <c r="AX15" s="5"/>
       <c r="AY15" s="5"/>
-      <c r="AZ15" s="47"/>
+      <c r="AZ15" s="46"/>
       <c r="BA15" s="6"/>
       <c r="BB15" s="3"/>
       <c r="BC15" s="3"/>
@@ -8150,7 +8214,7 @@
       <c r="AW16" s="5"/>
       <c r="AX16" s="5"/>
       <c r="AY16" s="5"/>
-      <c r="AZ16" s="47"/>
+      <c r="AZ16" s="46"/>
       <c r="BA16" s="6"/>
       <c r="BB16" s="3"/>
       <c r="BC16" s="3"/>
@@ -8610,7 +8674,7 @@
       <c r="AW18" s="5"/>
       <c r="AX18" s="5"/>
       <c r="AY18" s="5"/>
-      <c r="AZ18" s="47"/>
+      <c r="AZ18" s="46"/>
       <c r="BA18" s="6"/>
       <c r="BB18" s="3"/>
       <c r="BC18" s="3"/>
@@ -9186,7 +9250,7 @@
         <v>69</v>
       </c>
       <c r="AY20" s="5"/>
-      <c r="AZ20" s="47"/>
+      <c r="AZ20" s="46"/>
       <c r="BA20" s="6" t="s">
         <v>69</v>
       </c>
@@ -10808,7 +10872,7 @@
       <c r="AW25" s="5"/>
       <c r="AX25" s="5"/>
       <c r="AY25" s="5"/>
-      <c r="AZ25" s="47"/>
+      <c r="AZ25" s="46"/>
       <c r="BA25" s="6"/>
       <c r="BB25" s="3"/>
       <c r="BC25" s="3"/>
@@ -11014,7 +11078,7 @@
       <c r="AW26" s="5"/>
       <c r="AX26" s="5"/>
       <c r="AY26" s="5"/>
-      <c r="AZ26" s="47"/>
+      <c r="AZ26" s="46"/>
       <c r="BA26" s="6"/>
       <c r="BB26" s="3"/>
       <c r="BC26" s="3"/>
@@ -12252,7 +12316,7 @@
       <c r="AW30" s="5"/>
       <c r="AX30" s="5"/>
       <c r="AY30" s="5"/>
-      <c r="AZ30" s="47"/>
+      <c r="AZ30" s="46"/>
       <c r="BA30" s="6"/>
       <c r="BB30" s="3"/>
       <c r="BC30" s="3"/>
@@ -12386,7 +12450,7 @@
       <c r="AW31" s="5"/>
       <c r="AX31" s="5"/>
       <c r="AY31" s="5"/>
-      <c r="AZ31" s="47"/>
+      <c r="AZ31" s="46"/>
       <c r="BA31" s="6"/>
       <c r="BB31" s="3"/>
       <c r="BC31" s="3"/>
@@ -12910,7 +12974,7 @@
       <c r="AW33" s="5"/>
       <c r="AX33" s="5"/>
       <c r="AY33" s="5"/>
-      <c r="AZ33" s="47"/>
+      <c r="AZ33" s="46"/>
       <c r="BA33" s="6"/>
       <c r="BB33" s="3"/>
       <c r="BC33" s="3"/>
@@ -14376,7 +14440,7 @@
       <c r="AW38" s="5"/>
       <c r="AX38" s="5"/>
       <c r="AY38" s="5"/>
-      <c r="AZ38" s="47"/>
+      <c r="AZ38" s="46"/>
       <c r="BA38" s="6"/>
       <c r="BB38" s="3"/>
       <c r="BC38" s="3"/>
@@ -14980,7 +15044,7 @@
       <c r="AW40" s="5"/>
       <c r="AX40" s="5"/>
       <c r="AY40" s="5"/>
-      <c r="AZ40" s="47"/>
+      <c r="AZ40" s="46"/>
       <c r="BA40" s="6" t="s">
         <v>69</v>
       </c>
@@ -16458,7 +16522,7 @@
       <c r="AW45" s="5"/>
       <c r="AX45" s="5"/>
       <c r="AY45" s="5"/>
-      <c r="AZ45" s="47"/>
+      <c r="AZ45" s="46"/>
       <c r="BA45" s="6"/>
       <c r="BB45" s="3"/>
       <c r="BC45" s="3"/>
@@ -17666,7 +17730,7 @@
       <c r="AW49" s="5"/>
       <c r="AX49" s="5"/>
       <c r="AY49" s="5"/>
-      <c r="AZ49" s="47"/>
+      <c r="AZ49" s="46"/>
       <c r="BA49" s="6"/>
       <c r="BB49" s="3"/>
       <c r="BC49" s="3"/>
@@ -18524,7 +18588,7 @@
       <c r="AW52" s="5"/>
       <c r="AX52" s="5"/>
       <c r="AY52" s="5"/>
-      <c r="AZ52" s="47"/>
+      <c r="AZ52" s="46"/>
       <c r="BA52" s="6"/>
       <c r="BB52" s="3"/>
       <c r="BC52" s="3"/>
@@ -19008,7 +19072,7 @@
       <c r="AW54" s="5"/>
       <c r="AX54" s="5"/>
       <c r="AY54" s="5"/>
-      <c r="AZ54" s="47"/>
+      <c r="AZ54" s="46"/>
       <c r="BA54" s="6"/>
       <c r="BB54" s="3"/>
       <c r="BC54" s="3"/>
@@ -19204,7 +19268,7 @@
       <c r="AW55" s="5"/>
       <c r="AX55" s="5"/>
       <c r="AY55" s="5"/>
-      <c r="AZ55" s="47"/>
+      <c r="AZ55" s="46"/>
       <c r="BA55" s="6"/>
       <c r="BB55" s="3"/>
       <c r="BC55" s="3"/>
@@ -19410,7 +19474,7 @@
       <c r="AW56" s="5"/>
       <c r="AX56" s="5"/>
       <c r="AY56" s="5"/>
-      <c r="AZ56" s="47"/>
+      <c r="AZ56" s="46"/>
       <c r="BA56" s="6"/>
       <c r="BB56" s="3"/>
       <c r="BC56" s="3"/>
@@ -19664,7 +19728,7 @@
       <c r="AW57" s="5"/>
       <c r="AX57" s="5"/>
       <c r="AY57" s="5"/>
-      <c r="AZ57" s="47"/>
+      <c r="AZ57" s="46"/>
       <c r="BA57" s="6"/>
       <c r="BB57" s="3"/>
       <c r="BC57" s="3"/>
@@ -19886,7 +19950,7 @@
       <c r="AW58" s="5"/>
       <c r="AX58" s="5"/>
       <c r="AY58" s="5"/>
-      <c r="AZ58" s="47"/>
+      <c r="AZ58" s="46"/>
       <c r="BA58" s="6" t="s">
         <v>69</v>
       </c>
@@ -20180,7 +20244,7 @@
       <c r="AW59" s="5"/>
       <c r="AX59" s="5"/>
       <c r="AY59" s="5"/>
-      <c r="AZ59" s="47"/>
+      <c r="AZ59" s="46"/>
       <c r="BA59" s="6" t="s">
         <v>69</v>
       </c>
@@ -21694,7 +21758,7 @@
       <c r="AW64" s="5"/>
       <c r="AX64" s="5"/>
       <c r="AY64" s="5"/>
-      <c r="AZ64" s="47"/>
+      <c r="AZ64" s="46"/>
       <c r="BA64" s="6"/>
       <c r="BB64" s="3"/>
       <c r="BC64" s="3"/>
@@ -23337,7 +23401,7 @@
       <c r="BL69" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BM69" s="48"/>
+      <c r="BM69" s="47"/>
       <c r="BN69" s="43"/>
       <c r="BO69" s="43"/>
       <c r="BP69" s="43"/>
@@ -23348,7 +23412,7 @@
       <c r="BU69" s="43"/>
       <c r="BV69" s="43"/>
       <c r="BW69" s="43"/>
-      <c r="BX69" s="49"/>
+      <c r="BX69" s="48"/>
       <c r="BY69" s="42"/>
       <c r="BZ69" s="40"/>
       <c r="CA69" s="40"/>
@@ -23530,7 +23594,7 @@
       <c r="AW70" s="5"/>
       <c r="AX70" s="5"/>
       <c r="AY70" s="5"/>
-      <c r="AZ70" s="47"/>
+      <c r="AZ70" s="46"/>
       <c r="BA70" s="6"/>
       <c r="BB70" s="3"/>
       <c r="BC70" s="3"/>
@@ -24070,7 +24134,7 @@
       <c r="AW72" s="5"/>
       <c r="AX72" s="5"/>
       <c r="AY72" s="5"/>
-      <c r="AZ72" s="47"/>
+      <c r="AZ72" s="46"/>
       <c r="BA72" s="6"/>
       <c r="BB72" s="3"/>
       <c r="BC72" s="3"/>
@@ -24292,7 +24356,7 @@
       <c r="AW73" s="5"/>
       <c r="AX73" s="5"/>
       <c r="AY73" s="5"/>
-      <c r="AZ73" s="47"/>
+      <c r="AZ73" s="46"/>
       <c r="BA73" s="6" t="s">
         <v>69</v>
       </c>
@@ -24788,7 +24852,7 @@
       <c r="AW75" s="5"/>
       <c r="AX75" s="5"/>
       <c r="AY75" s="5"/>
-      <c r="AZ75" s="47"/>
+      <c r="AZ75" s="46"/>
       <c r="BA75" s="44" t="s">
         <v>69</v>
       </c>
@@ -24825,10 +24889,10 @@
       <c r="BL75" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BM75" s="48"/>
+      <c r="BM75" s="47"/>
       <c r="BN75" s="43"/>
       <c r="BO75" s="43"/>
-      <c r="BP75" s="69"/>
+      <c r="BP75" s="68"/>
       <c r="BQ75" s="43"/>
       <c r="BR75" s="43"/>
       <c r="BS75" s="43"/>
@@ -24836,7 +24900,7 @@
       <c r="BU75" s="43"/>
       <c r="BV75" s="43"/>
       <c r="BW75" s="43"/>
-      <c r="BX75" s="49"/>
+      <c r="BX75" s="48"/>
       <c r="BY75" s="42"/>
       <c r="BZ75" s="40"/>
       <c r="CA75" s="40"/>
@@ -24946,7 +25010,7 @@
       <c r="AW76" s="5"/>
       <c r="AX76" s="5"/>
       <c r="AY76" s="5"/>
-      <c r="AZ76" s="47"/>
+      <c r="AZ76" s="46"/>
       <c r="BA76" s="6"/>
       <c r="BB76" s="3"/>
       <c r="BC76" s="11" t="s">
@@ -24979,10 +25043,10 @@
       <c r="BL76" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BM76" s="48"/>
+      <c r="BM76" s="47"/>
       <c r="BN76" s="43"/>
       <c r="BO76" s="43"/>
-      <c r="BP76" s="69"/>
+      <c r="BP76" s="68"/>
       <c r="BQ76" s="43"/>
       <c r="BR76" s="43"/>
       <c r="BS76" s="43"/>
@@ -24990,7 +25054,7 @@
       <c r="BU76" s="43"/>
       <c r="BV76" s="43"/>
       <c r="BW76" s="43"/>
-      <c r="BX76" s="49"/>
+      <c r="BX76" s="48"/>
       <c r="BY76" s="42"/>
       <c r="BZ76" s="40"/>
       <c r="CA76" s="40"/>
@@ -26968,7 +27032,7 @@
       <c r="AW83" s="5"/>
       <c r="AX83" s="5"/>
       <c r="AY83" s="5"/>
-      <c r="AZ83" s="47"/>
+      <c r="AZ83" s="46"/>
       <c r="BA83" s="6" t="s">
         <v>69</v>
       </c>
@@ -27005,7 +27069,7 @@
       <c r="BL83" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BM83" s="50" t="s">
+      <c r="BM83" s="49" t="s">
         <v>69</v>
       </c>
       <c r="BN83" s="3" t="s">
@@ -27100,7 +27164,7 @@
       <c r="C84" s="3">
         <v>5000</v>
       </c>
-      <c r="D84" s="81"/>
+      <c r="D84" s="78"/>
       <c r="E84" s="9"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -27233,7 +27297,7 @@
       <c r="BL84" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BM84" s="48"/>
+      <c r="BM84" s="47"/>
       <c r="BN84" s="43"/>
       <c r="BO84" s="43"/>
       <c r="BP84" s="43"/>
@@ -27244,7 +27308,7 @@
       <c r="BU84" s="43"/>
       <c r="BV84" s="43"/>
       <c r="BW84" s="43"/>
-      <c r="BX84" s="49"/>
+      <c r="BX84" s="48"/>
       <c r="BY84" s="42"/>
       <c r="BZ84" s="40"/>
       <c r="CA84" s="40"/>
@@ -27655,78 +27719,78 @@
       <c r="AZ86" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="BA86" s="54"/>
-      <c r="BB86" s="55"/>
-      <c r="BC86" s="55"/>
-      <c r="BD86" s="55"/>
-      <c r="BE86" s="55"/>
-      <c r="BF86" s="55"/>
-      <c r="BG86" s="55"/>
-      <c r="BH86" s="55"/>
-      <c r="BI86" s="55"/>
-      <c r="BJ86" s="55"/>
-      <c r="BK86" s="55"/>
-      <c r="BL86" s="56"/>
-      <c r="BM86" s="57"/>
-      <c r="BN86" s="55"/>
-      <c r="BO86" s="55"/>
-      <c r="BP86" s="55"/>
-      <c r="BQ86" s="55"/>
-      <c r="BR86" s="55"/>
-      <c r="BS86" s="55"/>
-      <c r="BT86" s="55"/>
-      <c r="BU86" s="55"/>
-      <c r="BV86" s="55"/>
-      <c r="BW86" s="55"/>
-      <c r="BX86" s="58"/>
-      <c r="BY86" s="59"/>
-      <c r="BZ86" s="55"/>
-      <c r="CA86" s="55"/>
-      <c r="CB86" s="55"/>
-      <c r="CC86" s="55"/>
-      <c r="CD86" s="55"/>
-      <c r="CE86" s="55"/>
-      <c r="CF86" s="55"/>
-      <c r="CG86" s="55"/>
-      <c r="CH86" s="55"/>
-      <c r="CI86" s="55"/>
-      <c r="CJ86" s="56"/>
-      <c r="CK86" s="59"/>
-      <c r="CL86" s="55"/>
-      <c r="CM86" s="55"/>
-      <c r="CN86" s="55"/>
-      <c r="CO86" s="55"/>
-      <c r="CP86" s="55"/>
-      <c r="CQ86" s="55"/>
-      <c r="CR86" s="55"/>
-      <c r="CS86" s="55"/>
-      <c r="CT86" s="55"/>
-      <c r="CU86" s="55"/>
-      <c r="CV86" s="56"/>
-      <c r="CW86" s="59"/>
-      <c r="CX86" s="55"/>
-      <c r="CY86" s="55"/>
-      <c r="CZ86" s="55"/>
-      <c r="DA86" s="55"/>
-      <c r="DB86" s="55"/>
-      <c r="DC86" s="55"/>
-      <c r="DD86" s="55"/>
-      <c r="DE86" s="55"/>
-      <c r="DF86" s="55"/>
-      <c r="DG86" s="55"/>
-      <c r="DH86" s="56"/>
-      <c r="DI86" s="53"/>
-      <c r="DJ86" s="53"/>
-      <c r="DK86" s="53"/>
-      <c r="DL86" s="53"/>
-      <c r="DM86" s="53"/>
-      <c r="DN86" s="53"/>
-      <c r="DO86" s="53"/>
-      <c r="DP86" s="53"/>
-      <c r="DQ86" s="53"/>
-      <c r="DR86" s="53"/>
-      <c r="DS86" s="53"/>
-      <c r="DT86" s="61"/>
+      <c r="BA86" s="53"/>
+      <c r="BB86" s="54"/>
+      <c r="BC86" s="54"/>
+      <c r="BD86" s="54"/>
+      <c r="BE86" s="54"/>
+      <c r="BF86" s="54"/>
+      <c r="BG86" s="54"/>
+      <c r="BH86" s="54"/>
+      <c r="BI86" s="54"/>
+      <c r="BJ86" s="54"/>
+      <c r="BK86" s="54"/>
+      <c r="BL86" s="55"/>
+      <c r="BM86" s="56"/>
+      <c r="BN86" s="54"/>
+      <c r="BO86" s="54"/>
+      <c r="BP86" s="54"/>
+      <c r="BQ86" s="54"/>
+      <c r="BR86" s="54"/>
+      <c r="BS86" s="54"/>
+      <c r="BT86" s="54"/>
+      <c r="BU86" s="54"/>
+      <c r="BV86" s="54"/>
+      <c r="BW86" s="54"/>
+      <c r="BX86" s="57"/>
+      <c r="BY86" s="58"/>
+      <c r="BZ86" s="54"/>
+      <c r="CA86" s="54"/>
+      <c r="CB86" s="54"/>
+      <c r="CC86" s="54"/>
+      <c r="CD86" s="54"/>
+      <c r="CE86" s="54"/>
+      <c r="CF86" s="54"/>
+      <c r="CG86" s="54"/>
+      <c r="CH86" s="54"/>
+      <c r="CI86" s="54"/>
+      <c r="CJ86" s="55"/>
+      <c r="CK86" s="58"/>
+      <c r="CL86" s="54"/>
+      <c r="CM86" s="54"/>
+      <c r="CN86" s="54"/>
+      <c r="CO86" s="54"/>
+      <c r="CP86" s="54"/>
+      <c r="CQ86" s="54"/>
+      <c r="CR86" s="54"/>
+      <c r="CS86" s="54"/>
+      <c r="CT86" s="54"/>
+      <c r="CU86" s="54"/>
+      <c r="CV86" s="55"/>
+      <c r="CW86" s="58"/>
+      <c r="CX86" s="54"/>
+      <c r="CY86" s="54"/>
+      <c r="CZ86" s="54"/>
+      <c r="DA86" s="54"/>
+      <c r="DB86" s="54"/>
+      <c r="DC86" s="54"/>
+      <c r="DD86" s="54"/>
+      <c r="DE86" s="54"/>
+      <c r="DF86" s="54"/>
+      <c r="DG86" s="54"/>
+      <c r="DH86" s="55"/>
+      <c r="DI86" s="52"/>
+      <c r="DJ86" s="52"/>
+      <c r="DK86" s="52"/>
+      <c r="DL86" s="52"/>
+      <c r="DM86" s="52"/>
+      <c r="DN86" s="52"/>
+      <c r="DO86" s="52"/>
+      <c r="DP86" s="52"/>
+      <c r="DQ86" s="52"/>
+      <c r="DR86" s="52"/>
+      <c r="DS86" s="52"/>
+      <c r="DT86" s="60"/>
     </row>
     <row r="87" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
@@ -27775,40 +27839,40 @@
       <c r="AL87" s="3"/>
       <c r="AM87" s="3"/>
       <c r="AN87" s="7"/>
-      <c r="AO87" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP87" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ87" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR87" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS87" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT87" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU87" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV87" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW87" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="AX87" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY87" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ87" s="73" t="s">
+      <c r="AO87" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP87" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ87" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR87" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS87" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT87" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU87" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV87" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW87" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX87" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY87" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ87" s="72" t="s">
         <v>69</v>
       </c>
       <c r="BA87" s="6" t="s">
@@ -27883,14 +27947,14 @@
       <c r="BX87" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="BY87" s="74"/>
-      <c r="BZ87" s="74"/>
-      <c r="CA87" s="74"/>
-      <c r="CB87" s="74"/>
-      <c r="CC87" s="74"/>
-      <c r="CD87" s="74"/>
-      <c r="CE87" s="74"/>
-      <c r="CF87" s="74"/>
+      <c r="BY87" s="73"/>
+      <c r="BZ87" s="73"/>
+      <c r="CA87" s="73"/>
+      <c r="CB87" s="73"/>
+      <c r="CC87" s="73"/>
+      <c r="CD87" s="73"/>
+      <c r="CE87" s="73"/>
+      <c r="CF87" s="73"/>
       <c r="CG87" s="11" t="s">
         <v>69</v>
       </c>
@@ -27903,433 +27967,446 @@
       <c r="CJ87" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="CK87" s="74"/>
-      <c r="CL87" s="74"/>
-      <c r="CM87" s="74"/>
-      <c r="CN87" s="74"/>
-      <c r="CO87" s="74"/>
-      <c r="CP87" s="74"/>
-      <c r="CQ87" s="74"/>
-      <c r="CR87" s="74"/>
-      <c r="CS87" s="74"/>
-      <c r="CT87" s="74"/>
-      <c r="CU87" s="74"/>
-      <c r="CV87" s="74"/>
-      <c r="CW87" s="74"/>
-      <c r="CX87" s="74"/>
-      <c r="CY87" s="74"/>
-      <c r="CZ87" s="74"/>
-      <c r="DA87" s="74"/>
-      <c r="DB87" s="74"/>
-      <c r="DC87" s="74"/>
-      <c r="DD87" s="62"/>
-      <c r="DE87" s="62"/>
-      <c r="DF87" s="62"/>
-      <c r="DG87" s="62"/>
-      <c r="DH87" s="62"/>
-      <c r="DI87" s="63"/>
-      <c r="DJ87" s="63"/>
-      <c r="DK87" s="63"/>
-      <c r="DL87" s="63"/>
-      <c r="DM87" s="63"/>
-      <c r="DN87" s="63"/>
-      <c r="DO87" s="63"/>
-      <c r="DP87" s="63"/>
-      <c r="DQ87" s="63"/>
-      <c r="DR87" s="63"/>
-      <c r="DS87" s="63"/>
-      <c r="DT87" s="64"/>
+      <c r="CK87" s="73"/>
+      <c r="CL87" s="73"/>
+      <c r="CM87" s="73"/>
+      <c r="CN87" s="73"/>
+      <c r="CO87" s="73"/>
+      <c r="CP87" s="73"/>
+      <c r="CQ87" s="73"/>
+      <c r="CR87" s="73"/>
+      <c r="CS87" s="73"/>
+      <c r="CT87" s="73"/>
+      <c r="CU87" s="73"/>
+      <c r="CV87" s="73"/>
+      <c r="CW87" s="73"/>
+      <c r="CX87" s="73"/>
+      <c r="CY87" s="73"/>
+      <c r="CZ87" s="73"/>
+      <c r="DA87" s="73"/>
+      <c r="DB87" s="73"/>
+      <c r="DC87" s="73"/>
+      <c r="DD87" s="61"/>
+      <c r="DE87" s="61"/>
+      <c r="DF87" s="61"/>
+      <c r="DG87" s="61"/>
+      <c r="DH87" s="61"/>
+      <c r="DI87" s="62"/>
+      <c r="DJ87" s="62"/>
+      <c r="DK87" s="62"/>
+      <c r="DL87" s="62"/>
+      <c r="DM87" s="62"/>
+      <c r="DN87" s="62"/>
+      <c r="DO87" s="62"/>
+      <c r="DP87" s="62"/>
+      <c r="DQ87" s="62"/>
+      <c r="DR87" s="62"/>
+      <c r="DS87" s="62"/>
+      <c r="DT87" s="63"/>
     </row>
     <row r="88" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="75">
+      <c r="A88" s="6">
         <v>84</v>
       </c>
-      <c r="B88" s="76" t="s">
+      <c r="B88" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C88" s="52">
+      <c r="C88" s="3">
         <v>5000</v>
       </c>
-      <c r="D88" s="82"/>
-      <c r="E88" s="83"/>
-      <c r="F88" s="84"/>
-      <c r="G88" s="84"/>
-      <c r="H88" s="84"/>
-      <c r="I88" s="84"/>
-      <c r="J88" s="84"/>
-      <c r="K88" s="84"/>
-      <c r="L88" s="84"/>
-      <c r="M88" s="84"/>
-      <c r="N88" s="84"/>
-      <c r="O88" s="84"/>
-      <c r="P88" s="85"/>
-      <c r="Q88" s="83"/>
-      <c r="R88" s="84"/>
-      <c r="S88" s="84"/>
-      <c r="T88" s="84"/>
-      <c r="U88" s="84"/>
-      <c r="V88" s="84"/>
-      <c r="W88" s="84"/>
-      <c r="X88" s="84"/>
-      <c r="Y88" s="84"/>
-      <c r="Z88" s="84"/>
-      <c r="AA88" s="84"/>
-      <c r="AB88" s="85"/>
-      <c r="AC88" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD88" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE88" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF88" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG88" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH88" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI88" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ88" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK88" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL88" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM88" s="52"/>
-      <c r="AN88" s="65"/>
-      <c r="AO88" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP88" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ88" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR88" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS88" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT88" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU88" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV88" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW88" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AX88" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY88" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ88" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="BA88" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="BB88" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="BC88" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="BD88" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="BE88" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="BF88" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="BG88" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="BH88" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI88" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="BJ88" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="BK88" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="BL88" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="BM88" s="57"/>
-      <c r="BN88" s="55"/>
-      <c r="BO88" s="55"/>
-      <c r="BP88" s="55"/>
-      <c r="BQ88" s="55"/>
-      <c r="BR88" s="62"/>
-      <c r="BS88" s="62"/>
-      <c r="BT88" s="62"/>
-      <c r="BU88" s="62"/>
-      <c r="BV88" s="62"/>
-      <c r="BW88" s="62"/>
-      <c r="BX88" s="62"/>
-      <c r="BY88" s="62"/>
-      <c r="BZ88" s="62"/>
-      <c r="CA88" s="62"/>
-      <c r="CB88" s="62"/>
-      <c r="CC88" s="62"/>
-      <c r="CD88" s="62"/>
-      <c r="CE88" s="62"/>
-      <c r="CF88" s="62"/>
-      <c r="CG88" s="62"/>
-      <c r="CH88" s="62"/>
-      <c r="CI88" s="62"/>
-      <c r="CJ88" s="62"/>
-      <c r="CK88" s="62"/>
-      <c r="CL88" s="62"/>
-      <c r="CM88" s="62"/>
-      <c r="CN88" s="62"/>
-      <c r="CO88" s="62"/>
-      <c r="CP88" s="62"/>
-      <c r="CQ88" s="62"/>
-      <c r="CR88" s="62"/>
-      <c r="CS88" s="62"/>
-      <c r="CT88" s="62"/>
-      <c r="CU88" s="62"/>
-      <c r="CV88" s="62"/>
-      <c r="CW88" s="62"/>
-      <c r="CX88" s="62"/>
-      <c r="CY88" s="62"/>
-      <c r="CZ88" s="62"/>
-      <c r="DA88" s="62"/>
-      <c r="DB88" s="62"/>
-      <c r="DC88" s="62"/>
-      <c r="DD88" s="62"/>
-      <c r="DE88" s="62"/>
-      <c r="DF88" s="62"/>
-      <c r="DG88" s="62"/>
-      <c r="DH88" s="62"/>
-      <c r="DI88" s="63"/>
-      <c r="DJ88" s="63"/>
-      <c r="DK88" s="63"/>
-      <c r="DL88" s="63"/>
-      <c r="DM88" s="63"/>
-      <c r="DN88" s="63"/>
-      <c r="DO88" s="63"/>
-      <c r="DP88" s="63"/>
-      <c r="DQ88" s="63"/>
-      <c r="DR88" s="63"/>
-      <c r="DS88" s="63"/>
-      <c r="DT88" s="64"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+      <c r="AA88" s="3"/>
+      <c r="AB88" s="7"/>
+      <c r="AC88" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD88" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE88" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF88" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG88" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH88" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI88" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ88" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK88" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL88" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM88" s="3"/>
+      <c r="AN88" s="7"/>
+      <c r="AO88" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP88" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ88" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR88" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS88" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT88" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU88" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV88" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW88" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX88" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY88" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ88" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA88" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB88" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC88" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD88" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE88" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="BF88" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG88" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH88" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI88" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="BJ88" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK88" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="BL88" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM88" s="56"/>
+      <c r="BN88" s="54"/>
+      <c r="BO88" s="54"/>
+      <c r="BP88" s="54"/>
+      <c r="BQ88" s="54"/>
+      <c r="BR88" s="61"/>
+      <c r="BS88" s="61"/>
+      <c r="BT88" s="61"/>
+      <c r="BU88" s="61"/>
+      <c r="BV88" s="61"/>
+      <c r="BW88" s="61"/>
+      <c r="BX88" s="61"/>
+      <c r="BY88" s="61"/>
+      <c r="BZ88" s="61"/>
+      <c r="CA88" s="61"/>
+      <c r="CB88" s="61"/>
+      <c r="CC88" s="61"/>
+      <c r="CD88" s="61"/>
+      <c r="CE88" s="61"/>
+      <c r="CF88" s="61"/>
+      <c r="CG88" s="61"/>
+      <c r="CH88" s="61"/>
+      <c r="CI88" s="61"/>
+      <c r="CJ88" s="61"/>
+      <c r="CK88" s="61"/>
+      <c r="CL88" s="61"/>
+      <c r="CM88" s="61"/>
+      <c r="CN88" s="61"/>
+      <c r="CO88" s="61"/>
+      <c r="CP88" s="61"/>
+      <c r="CQ88" s="61"/>
+      <c r="CR88" s="61"/>
+      <c r="CS88" s="61"/>
+      <c r="CT88" s="61"/>
+      <c r="CU88" s="61"/>
+      <c r="CV88" s="61"/>
+      <c r="CW88" s="61"/>
+      <c r="CX88" s="61"/>
+      <c r="CY88" s="61"/>
+      <c r="CZ88" s="61"/>
+      <c r="DA88" s="61"/>
+      <c r="DB88" s="61"/>
+      <c r="DC88" s="61"/>
+      <c r="DD88" s="61"/>
+      <c r="DE88" s="61"/>
+      <c r="DF88" s="61"/>
+      <c r="DG88" s="61"/>
+      <c r="DH88" s="61"/>
+      <c r="DI88" s="62"/>
+      <c r="DJ88" s="62"/>
+      <c r="DK88" s="62"/>
+      <c r="DL88" s="62"/>
+      <c r="DM88" s="62"/>
+      <c r="DN88" s="62"/>
+      <c r="DO88" s="62"/>
+      <c r="DP88" s="62"/>
+      <c r="DQ88" s="62"/>
+      <c r="DR88" s="62"/>
+      <c r="DS88" s="62"/>
+      <c r="DT88" s="63"/>
     </row>
     <row r="89" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="A89" s="79">
         <v>85</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="142" t="s">
         <v>325</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="80">
         <v>3000</v>
       </c>
-      <c r="Q89" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="R89" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="S89" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="T89" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="U89" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="V89" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="W89" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="X89" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y89" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z89" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA89" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB89" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC89" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD89" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE89" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF89" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG89" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH89" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI89" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ89" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK89" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL89" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM89" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN89" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO89" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP89" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ89" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR89" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS89" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT89" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU89" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV89" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW89" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AX89" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY89" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ89" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="BA89" s="95"/>
-      <c r="BB89" s="95"/>
-      <c r="BC89" s="95"/>
-      <c r="BD89" s="95"/>
-      <c r="BE89" s="95"/>
-      <c r="BF89" s="95"/>
-      <c r="BG89" s="95"/>
-      <c r="BH89" s="95"/>
-      <c r="BI89" s="95"/>
-      <c r="BJ89" s="95"/>
-      <c r="BK89" s="95"/>
-      <c r="BL89" s="95"/>
-      <c r="BM89" s="95"/>
-      <c r="BN89" s="95"/>
-      <c r="BO89" s="95"/>
-      <c r="BP89" s="95"/>
-      <c r="BQ89" s="95"/>
-      <c r="BR89" s="95"/>
-      <c r="BS89" s="95"/>
-      <c r="BT89" s="95"/>
-      <c r="BU89" s="95"/>
-      <c r="BV89" s="95"/>
-      <c r="BW89" s="95"/>
-      <c r="BX89" s="95"/>
-      <c r="BY89" s="95"/>
-      <c r="BZ89" s="95"/>
-      <c r="CA89" s="95"/>
-      <c r="CB89" s="95"/>
-      <c r="CC89" s="95"/>
-      <c r="CD89" s="95"/>
-      <c r="CE89" s="95"/>
-      <c r="CF89" s="95"/>
-      <c r="CG89" s="95"/>
-      <c r="CH89" s="95"/>
-      <c r="CI89" s="95"/>
-      <c r="CJ89" s="95"/>
-      <c r="CK89" s="95"/>
-      <c r="CL89" s="95"/>
-      <c r="CM89" s="95"/>
-      <c r="CN89" s="95"/>
-      <c r="CO89" s="95"/>
-      <c r="CP89" s="95"/>
-      <c r="CQ89" s="95"/>
-      <c r="CR89" s="95"/>
-      <c r="CS89" s="95"/>
-      <c r="CT89" s="95"/>
-      <c r="CU89" s="95"/>
-      <c r="CV89" s="95"/>
-      <c r="CW89" s="95"/>
-      <c r="CX89" s="95"/>
-      <c r="CY89" s="95"/>
-      <c r="CZ89" s="95"/>
-      <c r="DA89" s="95"/>
-      <c r="DB89" s="95"/>
-      <c r="DC89" s="95"/>
-      <c r="DD89" s="95"/>
-      <c r="DE89" s="95"/>
-      <c r="DF89" s="95"/>
-      <c r="DG89" s="95"/>
-      <c r="DH89" s="95"/>
-      <c r="DI89" s="95"/>
-      <c r="DJ89" s="95"/>
-      <c r="DK89" s="95"/>
-      <c r="DL89" s="95"/>
-      <c r="DM89" s="95"/>
-      <c r="DN89" s="95"/>
-      <c r="DO89" s="95"/>
-      <c r="DP89" s="95"/>
-      <c r="DQ89" s="95"/>
-      <c r="DR89" s="95"/>
-      <c r="DS89" s="95"/>
-      <c r="DT89" s="95"/>
+      <c r="D89" s="143"/>
+      <c r="E89" s="79"/>
+      <c r="F89" s="80"/>
+      <c r="G89" s="80"/>
+      <c r="H89" s="80"/>
+      <c r="I89" s="80"/>
+      <c r="J89" s="80"/>
+      <c r="K89" s="80"/>
+      <c r="L89" s="80"/>
+      <c r="M89" s="80"/>
+      <c r="N89" s="80"/>
+      <c r="O89" s="80"/>
+      <c r="P89" s="81"/>
+      <c r="Q89" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="R89" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="S89" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="T89" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="U89" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="V89" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="W89" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="X89" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y89" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z89" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA89" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB89" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC89" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD89" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE89" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF89" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG89" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH89" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI89" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ89" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK89" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL89" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM89" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN89" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO89" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP89" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ89" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR89" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS89" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT89" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU89" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV89" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW89" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX89" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY89" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ89" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA89" s="91"/>
+      <c r="BB89" s="91"/>
+      <c r="BC89" s="91"/>
+      <c r="BD89" s="91"/>
+      <c r="BE89" s="91"/>
+      <c r="BF89" s="91"/>
+      <c r="BG89" s="91"/>
+      <c r="BH89" s="91"/>
+      <c r="BI89" s="91"/>
+      <c r="BJ89" s="91"/>
+      <c r="BK89" s="91"/>
+      <c r="BL89" s="91"/>
+      <c r="BM89" s="91"/>
+      <c r="BN89" s="91"/>
+      <c r="BO89" s="91"/>
+      <c r="BP89" s="91"/>
+      <c r="BQ89" s="91"/>
+      <c r="BR89" s="91"/>
+      <c r="BS89" s="91"/>
+      <c r="BT89" s="91"/>
+      <c r="BU89" s="91"/>
+      <c r="BV89" s="91"/>
+      <c r="BW89" s="91"/>
+      <c r="BX89" s="91"/>
+      <c r="BY89" s="91"/>
+      <c r="BZ89" s="91"/>
+      <c r="CA89" s="91"/>
+      <c r="CB89" s="91"/>
+      <c r="CC89" s="91"/>
+      <c r="CD89" s="91"/>
+      <c r="CE89" s="91"/>
+      <c r="CF89" s="91"/>
+      <c r="CG89" s="91"/>
+      <c r="CH89" s="91"/>
+      <c r="CI89" s="91"/>
+      <c r="CJ89" s="91"/>
+      <c r="CK89" s="91"/>
+      <c r="CL89" s="91"/>
+      <c r="CM89" s="91"/>
+      <c r="CN89" s="91"/>
+      <c r="CO89" s="91"/>
+      <c r="CP89" s="91"/>
+      <c r="CQ89" s="91"/>
+      <c r="CR89" s="91"/>
+      <c r="CS89" s="91"/>
+      <c r="CT89" s="91"/>
+      <c r="CU89" s="91"/>
+      <c r="CV89" s="91"/>
+      <c r="CW89" s="91"/>
+      <c r="CX89" s="91"/>
+      <c r="CY89" s="91"/>
+      <c r="CZ89" s="91"/>
+      <c r="DA89" s="91"/>
+      <c r="DB89" s="91"/>
+      <c r="DC89" s="91"/>
+      <c r="DD89" s="91"/>
+      <c r="DE89" s="91"/>
+      <c r="DF89" s="91"/>
+      <c r="DG89" s="91"/>
+      <c r="DH89" s="91"/>
+      <c r="DI89" s="91"/>
+      <c r="DJ89" s="91"/>
+      <c r="DK89" s="91"/>
+      <c r="DL89" s="91"/>
+      <c r="DM89" s="91"/>
+      <c r="DN89" s="91"/>
+      <c r="DO89" s="91"/>
+      <c r="DP89" s="91"/>
+      <c r="DQ89" s="91"/>
+      <c r="DR89" s="91"/>
+      <c r="DS89" s="91"/>
+      <c r="DT89" s="91"/>
     </row>
     <row r="90" spans="1:124" x14ac:dyDescent="0.25">
       <c r="U90" s="1"/>
@@ -28416,17 +28493,8 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="co1bb4TtvQBH96P/jh3Lntz30bgn1KqRTBO4c6ZMP24/rCphDUaNcGoml9Uoo9CGkjISHMKBLFa4VQak8Sn4sQ==" saltValue="xpmcQ6g9zkbpaG38N8kzmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="26">
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="E3:P3"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="Q3:AB3"/>
-    <mergeCell ref="BA2:BL2"/>
-    <mergeCell ref="AC2:AN2"/>
-    <mergeCell ref="AC3:AN3"/>
-    <mergeCell ref="AO2:AZ2"/>
-    <mergeCell ref="AO3:AZ3"/>
-    <mergeCell ref="BA3:BL3"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="A1:DT1"/>
     <mergeCell ref="CK2:CV2"/>
@@ -28443,8 +28511,258 @@
     <mergeCell ref="BM2:BX2"/>
     <mergeCell ref="BY2:CJ2"/>
     <mergeCell ref="BY3:CJ3"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="Q3:AB3"/>
+    <mergeCell ref="BA2:BL2"/>
+    <mergeCell ref="AC2:AN2"/>
+    <mergeCell ref="AC3:AN3"/>
+    <mergeCell ref="AO2:AZ2"/>
+    <mergeCell ref="AO3:AZ3"/>
+    <mergeCell ref="BA3:BL3"/>
   </mergeCells>
   <conditionalFormatting sqref="E27:G27">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:H39">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74:I74">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:I78">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79:I79">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:I80 H81:I82">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:P29 AC29:AN29">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:P51">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66:P66 AC66:AN66">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:AB23">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:AB28">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:AB50">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:AB67">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68:AB68">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77:AH77">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41:AJ41">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63:AK63">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:AN24">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:AN47">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:AN48">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -28456,7 +28774,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39:H39">
+  <conditionalFormatting sqref="F35:P35">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86:P86">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:P27">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:P39">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -28468,7 +28822,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:I74">
+  <conditionalFormatting sqref="J74:K74">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -28480,7 +28834,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78:I78">
+  <conditionalFormatting sqref="J78:N78">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -28492,7 +28846,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79:I79">
+  <conditionalFormatting sqref="J79:N79">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -28504,7 +28858,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80:I80 H81:I82">
+  <conditionalFormatting sqref="J80:N80">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -28516,7 +28870,607 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29:P29 AC29:AN29">
+  <conditionalFormatting sqref="L74:S74 AC74:AE74">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O78:P78">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O79:P79">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O80:P80">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27:S27">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q39:T39">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q71:T71">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q90:T90">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q78:U78">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q79:U79">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q80:U80 T81:U82">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q29:AB29">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q51:AB51">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q65:AB65">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q66:AB66">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q69:AB69">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q61:AJ61 Q60:AN60 E60:P61">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q53:AZ53">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R37">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R35:AN36">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R86:AN86">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T74:U74">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27:AF27">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U21">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U19:AB19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U39:AB39">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V74:Z74">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V78:Z78">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V79:Z79">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V80:Z80">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V81:Z82">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA74:AB74">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA78:AB78">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA79:AB79">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA80:AB80">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA81:AG81 E81:G81 J81:S81">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA82:AG82 E82:G82 J82:S82">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC62:AF62">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC78:AF78">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC90:AF90">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC32:AJ32">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC23:AN23">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC28:AN28">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC37:AN37">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC39:AN39">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC46:AN46">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC50:AN50">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC51:AN51">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC65:AN65">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC67:AN67">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC68:AN68">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -28528,8 +29482,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51:P51">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="AC69:AN69">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -28540,7 +29494,811 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66:P66 AC66:AN66">
+  <conditionalFormatting sqref="AC71:AN71">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC79:AN79">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC80:AN80">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC84:AN84">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF74:AN74">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG27">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG21:AI21">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG19:AN19">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG78:AN78">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH81:AL81">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH82:AL82">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH27:AN27">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ21:AK21">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL63">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL21:AN21 E22:AN22">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM81:AN82">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO27:AO28">
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO29">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO32">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO74:AQ74">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO37:AR37">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO90:AR90">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO20:AS20">
+    <cfRule type="colorScale" priority="141">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO81:AS81">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO82:AS82">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO58:AV58">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO59:AV59">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO75:AV75">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO62:AW63">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO22:AZ22">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO23:AZ23">
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO24:AZ24">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO34:AZ34">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO35:AZ36 AS37:AZ37">
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO39:AZ39">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO41:AZ41">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO46:AZ48">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO50:AZ51">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO60:AZ60">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO61:AZ61">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO65:AZ65">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO66:AZ66">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO67:AZ67">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO68:AZ68">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO69:AZ69">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO71:AZ71">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO77:AZ77">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO78:AZ79">
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO80:AZ80">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO84:AZ84">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO87:AZ87">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP29:AS29">
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP32:AV32">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP28:AZ28 AU29:AZ29 AP27:AX27">
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR74:AZ74">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT29">
+    <cfRule type="colorScale" priority="147">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT81:AX81">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT82:AX82">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW32:AZ32">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX62:AZ63">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY27:AZ27">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY81:AZ81">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY82:AZ82">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA20:BE20">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA5:BL9 BB81:BL81 BA82:BL83 BA15:BL16 BA18:BL18 BA21:BE21 BA19:BF19 BA11:BL11 BA25:BL31 BK32:BL32 BA64:BL66 BA22:BL23 BL12 BA76:BL79 BB75:BL75 BA45:BL59 BA62:BA63 BA33:BL41 BA68:BL74">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA24:BL24">
+    <cfRule type="colorScale" priority="137">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA61:BL61 BJ60:BL60">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA67:BL67">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -28552,691 +30310,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:AB23">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:AB28">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50:AB50">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:AB67">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:AB68">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88:AF88 AM88:AN88">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77:AH77">
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41:AJ41">
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63:AK63">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:AN24">
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:AN47">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48:AN48">
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:P35">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86:P86">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:P27">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:P39">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J74:K74">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J78:N78">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J79:N79">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J80:N80">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L74:S74 AC74:AE74">
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O78:P78">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O79:P79">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O80:P80">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q27:S27">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q39:T39">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q71:T71">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q89:T90">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q78:U78">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q79:U79">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q80:U80 T81:U82">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q29:AB29">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q51:AB51">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q65:AB65">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q66:AB66">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q69:AB69">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q61:AJ61 Q60:AN60 E60:P61">
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q53:AZ53">
-    <cfRule type="colorScale" priority="134">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R37">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R35:AN36">
-    <cfRule type="colorScale" priority="105">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R86:AN86">
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T74:U74">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T27:AF27">
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U21">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U19:AB19">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U39:AB39">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V74:Z74">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V78:Z78">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V79:Z79">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V80:Z80">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V81:Z82">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z89:AB89">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA74:AB74">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA78:AB78">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA79:AB79">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA80:AB80">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA81:AG81 E81:G81 J81:S81">
+  <conditionalFormatting sqref="BA80:BL80">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
@@ -29248,8 +30322,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA82:AG82 E82:G82 J82:S82">
-    <cfRule type="colorScale" priority="101">
+  <conditionalFormatting sqref="BA87:BL87 BK88:BL88 BA89:DT90">
+    <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -29260,8 +30334,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC62:AF62">
-    <cfRule type="colorScale" priority="54">
+  <conditionalFormatting sqref="BB62:BL63">
+    <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -29272,8 +30346,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC78:AF78">
-    <cfRule type="colorScale" priority="103">
+  <conditionalFormatting sqref="BL20">
+    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -29284,583 +30358,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC89:AF90">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC32:AJ32">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC23:AN23">
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC28:AN28">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC37:AN37">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC39:AN39">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC46:AN46">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC50:AN50">
-    <cfRule type="colorScale" priority="115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC51:AN51">
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC65:AN65">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC67:AN67">
-    <cfRule type="colorScale" priority="109">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC68:AN68">
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC69:AN69">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC71:AN71">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC79:AN79">
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC80:AN80">
-    <cfRule type="colorScale" priority="97">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC84:AN84">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF74:AN74">
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG27">
-    <cfRule type="colorScale" priority="117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG21:AI21">
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG88:AL88">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG19:AN19">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG78:AN78">
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH81:AL81">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH82:AL82">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH27:AN27">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ21:AK21">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL63">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL21:AN21 E22:AN22">
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM81:AN82">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO27:AO28">
-    <cfRule type="colorScale" priority="154">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO29">
-    <cfRule type="colorScale" priority="147">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO32">
-    <cfRule type="colorScale" priority="131">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO74:AQ74">
-    <cfRule type="colorScale" priority="156">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO37:AR37">
-    <cfRule type="colorScale" priority="157">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO88:AR88">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO89:AR90">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO20:AS20">
-    <cfRule type="colorScale" priority="140">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO81:AS81">
-    <cfRule type="colorScale" priority="128">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO82:AS82">
-    <cfRule type="colorScale" priority="129">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO58:AV58">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO59:AV59">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO75:AV75">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO62:AW63">
-    <cfRule type="colorScale" priority="124">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO22:AZ22">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO23:AZ23">
-    <cfRule type="colorScale" priority="153">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO24:AZ24">
-    <cfRule type="colorScale" priority="135">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO34:AZ34">
-    <cfRule type="colorScale" priority="133">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO35:AZ36 AS37:AZ37">
+  <conditionalFormatting sqref="BL21">
     <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
@@ -29872,367 +30370,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO39:AZ39">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO41:AZ41">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO46:AZ48">
-    <cfRule type="colorScale" priority="145">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO50:AZ51">
-    <cfRule type="colorScale" priority="149">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO60:AZ60">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO61:AZ61">
-    <cfRule type="colorScale" priority="138">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO65:AZ65">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO66:AZ66">
-    <cfRule type="colorScale" priority="150">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO67:AZ67">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO68:AZ68">
-    <cfRule type="colorScale" priority="137">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO69:AZ69">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO71:AZ71">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO77:AZ77">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO78:AZ79">
-    <cfRule type="colorScale" priority="144">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO80:AZ80">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO84:AZ84">
-    <cfRule type="colorScale" priority="130">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO87:AZ87">
-    <cfRule type="colorScale" priority="120">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP29:AS29">
-    <cfRule type="colorScale" priority="148">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP32:AV32">
-    <cfRule type="colorScale" priority="132">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP28:AZ28 AU29:AZ29 AP27:AX27">
-    <cfRule type="colorScale" priority="155">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR74:AZ74">
-    <cfRule type="colorScale" priority="143">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT29">
-    <cfRule type="colorScale" priority="146">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT81:AX81">
-    <cfRule type="colorScale" priority="127">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT82:AX82">
-    <cfRule type="colorScale" priority="126">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW32:AZ32">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX62:AZ63">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY27:AZ27">
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY81:AZ81">
-    <cfRule type="colorScale" priority="122">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY82:AZ82">
-    <cfRule type="colorScale" priority="123">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA20:BE20">
-    <cfRule type="colorScale" priority="142">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA5:BL9 BB81:BL81 BA82:BL83 BA15:BL16 BA18:BL18 BA21:BE21 BA19:BF19 BA11:BL11 BA25:BL31 BK32:BL32 BA64:BL66 BA22:BL23 BL12 BA76:BL79 BB75:BL75 BA45:BL59 BA62:BA63 BA33:BL41 BA68:BL74">
+  <conditionalFormatting sqref="BM53:BX53">
     <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
@@ -30244,103 +30382,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA24:BL24">
-    <cfRule type="colorScale" priority="136">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA61:BL61 BJ60:BL60">
-    <cfRule type="colorScale" priority="139">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA67:BL67">
-    <cfRule type="colorScale" priority="111">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA80:BL80">
-    <cfRule type="colorScale" priority="99">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA87:BL87 BK88:BL88 BA89:DT90">
-    <cfRule type="colorScale" priority="121">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB62:BL63">
-    <cfRule type="colorScale" priority="125">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL20">
-    <cfRule type="colorScale" priority="141">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL21">
-    <cfRule type="colorScale" priority="151">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM53:BX53">
+  <conditionalFormatting sqref="BY53:CJ53">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min"/>
@@ -30352,7 +30394,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY53:CJ53">
+  <conditionalFormatting sqref="CK53:CV53">
     <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min"/>
@@ -30364,8 +30406,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK53:CV53">
-    <cfRule type="colorScale" priority="158">
+  <conditionalFormatting sqref="AO88:AZ89">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30387,1217 +30429,1218 @@
   <dimension ref="B1:J58"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="85" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="4" style="127" customWidth="1"/>
+    <col min="2" max="2" width="12" style="127" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="127" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="132" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="131" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="131" customWidth="1"/>
+    <col min="7" max="7" width="85" style="127" customWidth="1"/>
+    <col min="8" max="8" width="10" style="127" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="127" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="127" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="127"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="21">
+      <c r="I1" s="126">
         <f>SUM(E2:E59)</f>
         <v>2527050</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="127" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="129">
         <v>43764</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="130">
         <v>100000</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="129">
         <v>43790</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="130">
         <v>270000</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="128" t="s">
         <v>213</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="132">
         <v>43800</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="131">
         <v>72000</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="131">
         <v>621</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="128" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="121" t="s">
+      <c r="H4" s="133" t="s">
         <v>206</v>
       </c>
-      <c r="I4" s="122"/>
+      <c r="I4" s="134"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="132">
         <v>43800</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="131">
         <v>20000</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="131">
         <v>622</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="127" t="s">
         <v>215</v>
       </c>
-      <c r="H5" s="93" t="s">
+      <c r="H5" s="135" t="s">
         <v>207</v>
       </c>
-      <c r="I5" s="94">
+      <c r="I5" s="136">
         <f ca="1">+SUMIF($B$2:$E$65,"Ingreso",$E$2:$E$65)</f>
         <v>3734650</v>
       </c>
-      <c r="J5" s="51"/>
+      <c r="J5" s="137"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="132">
         <v>43802</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="131">
         <v>90000</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="131">
         <v>623</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="127" t="s">
         <v>216</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="138" t="s">
         <v>208</v>
       </c>
-      <c r="I6" s="92">
+      <c r="I6" s="139">
         <f ca="1">-SUMIF($B$2:$E$65,"Egreso",$E$2:$E$65)</f>
         <v>1207600</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="132">
         <v>43818</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="131">
         <v>72000</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="131">
         <v>624</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="127" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="132">
         <v>43834</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="131">
         <v>72000</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="131">
         <v>625</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="127" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="132">
         <v>43834</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="131">
         <v>30000</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="131">
         <v>626</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="127" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="132">
         <v>43834</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="131">
         <v>21000</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="131">
         <v>627</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="127" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="132">
         <v>43841</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="131">
         <v>200000</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="131">
         <v>628</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="127" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="132">
         <v>43841</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="131">
         <v>24000</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="131">
         <v>629</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="127" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="132">
         <v>43841</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="131">
         <v>48000</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="131">
         <v>630</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="127" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="132">
         <v>43843</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="131">
         <v>36000</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="131">
         <v>631</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="127" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="132">
         <v>43849</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="131">
         <v>10000</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="131">
         <v>632</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="127" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="132">
         <v>43856</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="131">
         <v>0</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="131">
         <v>633</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="127" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="132">
         <v>43856</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="131">
         <v>0</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="131">
         <v>634</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="127" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="127" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="132">
         <v>43856</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="131">
         <v>60000</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="131">
         <v>635</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="127" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="132">
         <v>43856</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="131">
         <v>86000</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="131">
         <v>636</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="127" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="132">
         <v>43861</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="131">
         <v>24000</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="131">
         <v>637</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="127" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="132">
         <v>43863</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="131">
         <v>48000</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="131">
         <v>638</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="127" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="132">
         <v>43865</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="131">
         <v>24000</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="131">
         <v>639</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="127" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="132">
         <v>43865</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="131">
         <v>16000</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="131">
         <v>640</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="127" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="127" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="132">
         <v>43866</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="131">
         <v>-1200000</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="127" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="132">
         <v>43878</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="131">
         <v>60000</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="131">
         <v>641</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="127" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="132">
         <v>43881</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="131">
         <v>24000</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="131">
         <v>642</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="127" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="132">
         <v>43897</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="131">
         <v>20000</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="131">
         <v>643</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="127" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="132">
         <v>43897</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="131">
         <v>60000</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="131">
         <v>644</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="127" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="132">
         <v>43897</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="131">
         <v>52000</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="131">
         <v>645</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="127" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="127" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="132">
         <v>43983</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="131">
         <v>60000</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="131">
         <v>646</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="127" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="127" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="132">
         <v>44019</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="131">
         <v>18000</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="131">
         <v>648</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="127" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="132">
         <v>44019</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="131">
         <v>36000</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="131">
         <v>649</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="127" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="132">
         <v>44023</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="131">
         <v>50000</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="131">
         <v>650</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="127" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="132">
         <v>44025</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="131">
         <v>100000</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="127" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="132">
         <v>44026</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="131">
         <v>36000</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="140" t="s">
         <v>109</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="127" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="132">
         <v>44027</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="131">
         <v>138000</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="140" t="s">
         <v>110</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="127" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="132">
         <v>44027</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="131">
         <v>150000</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="127" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="132">
         <v>44057</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="131">
         <v>20000</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="127" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="132">
         <v>44032</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="131">
         <v>60000</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="127" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="132">
         <v>44073</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="131">
         <v>29000</v>
       </c>
-      <c r="F40" s="28" t="s">
+      <c r="F40" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="127" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="132">
         <v>44077</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="131">
         <v>84000</v>
       </c>
-      <c r="F41" s="28" t="s">
+      <c r="F41" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="127" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="132">
         <v>44056</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="131">
         <v>50000</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="127" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="132">
         <v>44078</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="131">
         <v>50000</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="127" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="132">
         <v>44078</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="131">
         <v>50000</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="140" t="s">
         <v>121</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="127" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="132">
         <v>44081</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="131">
         <v>200000</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="131">
         <v>651</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="127" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="127" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="132">
         <v>44095</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="131">
         <v>-7600</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="131" t="s">
         <v>127</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="127" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="132">
         <v>44095</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="131">
         <v>348650</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="131" t="s">
         <v>125</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="I47" s="51"/>
+      <c r="I47" s="137"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="132">
         <v>44099</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="131">
         <v>50000</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="131">
         <v>652</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="127" t="s">
         <v>240</v>
       </c>
-      <c r="H48" s="45" t="s">
+      <c r="H48" s="141" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="132">
         <v>44099</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="131">
         <v>80000</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="131">
         <v>653</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="127" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="132">
         <v>44127</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="131">
         <v>48000</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="131">
         <v>654</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="127" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="132">
         <v>44141</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="131">
         <v>60000</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="131">
         <v>655</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="127" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="132">
         <v>44155</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="131">
         <v>36000</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="131">
         <v>656</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="127" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="132">
         <v>44169</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="131">
         <v>60000</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="131">
         <v>657</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="127" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="127" t="s">
         <v>133</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="132">
         <v>44171</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="131">
         <v>100000</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F54" s="131">
         <v>659</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="127" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="132">
         <v>44176</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="131">
         <v>60000</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="131">
         <v>660</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="127" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="132">
         <v>44181</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="131">
         <v>54000</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F56" s="131">
         <v>663</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="127" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="132">
         <v>44200</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="131">
         <v>60000</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="131">
         <v>662</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="127" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="132">
         <v>44188</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="131">
         <v>108000</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F58" s="131">
         <v>664</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="127" t="s">
         <v>247</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="3LheXwfWRuuHC+p0akxv7wkEUA2jmYkrogLSIKDkdW2yYGu5Jy8WCx22iwUL+8kliEc2+lDoL7hok8hK889GFw==" saltValue="GSjFJzlLMOHISrnAijK1mg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="H4:I4"/>
   </mergeCells>
@@ -31633,7 +31676,7 @@
   <dimension ref="B1:J52"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31740,10 +31783,10 @@
       <c r="G4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="117" t="s">
         <v>206</v>
       </c>
-      <c r="I4" s="124"/>
+      <c r="I4" s="118"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -31764,10 +31807,10 @@
       <c r="G5" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H5" s="93" t="s">
+      <c r="H5" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="I5" s="94">
+      <c r="I5" s="90">
         <f ca="1">+SUMIF($B$2:$E$65,"Ingreso",$E$2:$E$65)</f>
         <v>3234000</v>
       </c>
@@ -31791,10 +31834,10 @@
       <c r="G6" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="I6" s="92">
+      <c r="I6" s="88">
         <f ca="1">-SUMIF($B$2:$E$65,"Egreso",$E$2:$E$65)</f>
         <v>3231000</v>
       </c>
@@ -32625,7 +32668,7 @@
       <c r="E48" s="15">
         <v>-61000</v>
       </c>
-      <c r="F48" s="60" t="s">
+      <c r="F48" s="59" t="s">
         <v>156</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -32710,6 +32753,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="1sYk7allr48oliGxH3Hp/CzGfHuHsp2b3xI4tgFf0ITKDzKTQdapW3TDwAXbkILT7qZZNU+N2c2h0RaxVM9pZw==" saltValue="bfKZVJPv0P/U4NsM7Ww2KA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="H4:I4"/>
   </mergeCells>
@@ -32734,7 +32778,7 @@
   <dimension ref="B1:K59"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32801,9 +32845,9 @@
       <c r="G2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="I2" s="86"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -32824,7 +32868,7 @@
       <c r="G3" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="I3" s="86"/>
+      <c r="I3" s="82"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -32845,10 +32889,10 @@
       <c r="G4" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="117" t="s">
         <v>206</v>
       </c>
-      <c r="I4" s="124"/>
+      <c r="I4" s="118"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -32869,10 +32913,10 @@
       <c r="G5" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H5" s="93" t="s">
+      <c r="H5" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="I5" s="94">
+      <c r="I5" s="90">
         <f ca="1">+SUMIF($B$2:$E$65,"Ingreso",$E$2:$E$65)</f>
         <v>2603000</v>
       </c>
@@ -32896,14 +32940,14 @@
       <c r="G6" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="I6" s="92">
+      <c r="I6" s="88">
         <f ca="1">-SUMIF($B$2:$E$65,"Egreso",$E$2:$E$65)</f>
         <v>1315850</v>
       </c>
-      <c r="J6" s="79"/>
+      <c r="J6" s="76"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -32924,8 +32968,8 @@
       <c r="G7" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="I7" s="86"/>
-      <c r="J7" s="51"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -32946,8 +32990,8 @@
       <c r="G8" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I8" s="86"/>
-      <c r="J8" s="79"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="76"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -32985,8 +33029,8 @@
       <c r="G10" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="51"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="50"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -33943,6 +33987,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="qFT8z4VlH7FOLCnCwkzUsQn8L4aHMhE7EJ7oIrVg6cU4rcFuMuPBWL+r8D3iwhU+1SK3cfUMkGtSm7r06ODLEQ==" saltValue="d/jL+9fQOoCz6r4gnmNPeA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="H4:I4"/>
   </mergeCells>
@@ -34022,7 +34067,7 @@
         <f>'2022'!I1+SUM(E2:E66)</f>
         <v>4479230</v>
       </c>
-      <c r="J1" s="51"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -34050,8 +34095,8 @@
       <c r="I2" s="15">
         <v>3972230</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -34098,7 +34143,7 @@
       <c r="G4" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="66">
         <f>((I2+I3)-I1)</f>
         <v>0</v>
       </c>
@@ -34146,10 +34191,10 @@
       <c r="G6" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="J6" s="79"/>
+      <c r="J6" s="76"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -34170,11 +34215,11 @@
       <c r="H7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I7" s="68">
+      <c r="I7" s="67">
         <f ca="1">E30+E46+150000*MONTH(TODAY())</f>
         <v>300000</v>
       </c>
-      <c r="J7" s="51"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -34195,8 +34240,8 @@
       <c r="G8" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I8" s="86"/>
-      <c r="J8" s="79"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="76"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -34237,10 +34282,10 @@
       <c r="G10" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H10" s="125" t="s">
+      <c r="H10" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="I10" s="126">
+      <c r="I10" s="120">
         <f ca="1">+I1-(I7+I8)</f>
         <v>4179230</v>
       </c>
@@ -34264,8 +34309,8 @@
       <c r="G11" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="120"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -34323,10 +34368,10 @@
       <c r="G14" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H14" s="123" t="s">
+      <c r="H14" s="117" t="s">
         <v>206</v>
       </c>
-      <c r="I14" s="124"/>
+      <c r="I14" s="118"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -34347,10 +34392,10 @@
       <c r="G15" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H15" s="93" t="s">
+      <c r="H15" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="I15" s="94">
+      <c r="I15" s="90">
         <f ca="1">+SUMIF($B$2:$E$65,"Ingreso",$E$2:$E$65)</f>
         <v>3314000</v>
       </c>
@@ -34374,10 +34419,10 @@
       <c r="G16" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H16" s="91" t="s">
+      <c r="H16" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="I16" s="92">
+      <c r="I16" s="88">
         <f ca="1">-SUMIF($B$2:$E$65,"Egreso",$E$2:$E$65)</f>
         <v>2651970</v>
       </c>
@@ -34572,7 +34617,7 @@
       <c r="D26" s="19">
         <v>45031</v>
       </c>
-      <c r="E26" s="90">
+      <c r="E26" s="86">
         <v>48000</v>
       </c>
       <c r="F26" s="15">
@@ -34592,7 +34637,7 @@
       <c r="D27" s="19">
         <v>45038</v>
       </c>
-      <c r="E27" s="86">
+      <c r="E27" s="82">
         <v>200000</v>
       </c>
       <c r="F27" s="15">
@@ -34612,7 +34657,7 @@
       <c r="D28" s="19">
         <v>45040</v>
       </c>
-      <c r="E28" s="86">
+      <c r="E28" s="82">
         <v>-42670</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -34629,7 +34674,7 @@
       <c r="D29" s="19">
         <v>45041</v>
       </c>
-      <c r="E29" s="86">
+      <c r="E29" s="82">
         <v>40000</v>
       </c>
       <c r="F29" s="15">
@@ -35091,6 +35136,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="BopnqxfnM3WXoOvfItk9Jw2VwO8Q+lPDgmWPS1TkFFTsVeRp2PeC1KXHKhDm5mtWNbEVkr17BKVov76UIK6lHQ==" saltValue="FpJzIDw8RV7kopiKTLJZww==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
@@ -35129,101 +35175,102 @@
   <dimension ref="A5:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="2" style="97" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="97"/>
+    <col min="1" max="4" width="2" style="93" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="93"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="94" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="94" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="94" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="95" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="99">
+      <c r="A6" s="95">
         <v>2020</v>
       </c>
-      <c r="B6" s="100">
+      <c r="B6" s="96">
         <f ca="1">+'2020'!I5</f>
         <v>3734650</v>
       </c>
-      <c r="C6" s="100">
+      <c r="C6" s="96">
         <f ca="1">+'2020'!I6</f>
         <v>1207600</v>
       </c>
-      <c r="D6" s="100">
+      <c r="D6" s="96">
         <f>+'2020'!I1</f>
         <v>2527050</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="99">
+      <c r="A7" s="95">
         <v>2021</v>
       </c>
-      <c r="B7" s="100">
+      <c r="B7" s="96">
         <f ca="1">+'2021'!I5</f>
         <v>3234000</v>
       </c>
-      <c r="C7" s="100">
+      <c r="C7" s="96">
         <f ca="1">+'2021'!I6</f>
         <v>3231000</v>
       </c>
-      <c r="D7" s="100">
+      <c r="D7" s="96">
         <f>+'2021'!I1</f>
         <v>2530050</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="99">
+      <c r="A8" s="95">
         <v>2022</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="96">
         <f ca="1">+'2022'!I5</f>
         <v>2603000</v>
       </c>
-      <c r="C8" s="100">
+      <c r="C8" s="96">
         <f ca="1">+'2022'!I6</f>
         <v>1315850</v>
       </c>
-      <c r="D8" s="100">
+      <c r="D8" s="96">
         <f>+'2022'!I1</f>
         <v>3817200</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="99">
+      <c r="A9" s="95">
         <v>2023</v>
       </c>
-      <c r="B9" s="100">
+      <c r="B9" s="96">
         <f ca="1">+'2023'!I15</f>
         <v>3314000</v>
       </c>
-      <c r="C9" s="100">
+      <c r="C9" s="96">
         <f ca="1">+'2023'!I16</f>
         <v>2651970</v>
       </c>
-      <c r="D9" s="100">
+      <c r="D9" s="96">
         <f>+'2023'!I1</f>
         <v>4479230</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
+      <c r="A21" s="92"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="1lsIRUSJfqjo/J10RcgcnkToVwSsEkm6hObyQTFsMZVPrDS5izoeJYB7gAKTwAuQV9wy/vC2nbTk+DTuwuvtJQ==" saltValue="8IMcaVhL9HcQI/GKdzuynw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
